--- a/需求3：Excel文件进行读写/resources/ex3_5/开口哭牌供货列表.xlsx
+++ b/需求3：Excel文件进行读写/resources/ex3_5/开口哭牌供货列表.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/baicizhan1088/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/335b2324f39c6022/大学课件/大三下/python自动化办公/需求3^7Excel文件进行读写/resources/ex3_5/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_905482928CB15CEA59F8F44E13D67ABAAAA25095" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="460" windowWidth="27760" windowHeight="15900" tabRatio="500"/>
+    <workbookView xWindow="1837" yWindow="1837" windowWidth="15391" windowHeight="9533" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="6月供货" sheetId="2" r:id="rId1"/>
@@ -492,8 +493,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -549,6 +550,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -816,26 +820,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="1" max="1" width="15.3515625" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="26.5" customWidth="1"/>
-    <col min="4" max="4" width="32.1640625" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
-    <col min="6" max="6" width="25.1640625" customWidth="1"/>
-    <col min="7" max="7" width="26.33203125" customWidth="1"/>
-    <col min="8" max="8" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.46875" customWidth="1"/>
+    <col min="4" max="4" width="32.17578125" customWidth="1"/>
+    <col min="5" max="5" width="18.64453125" customWidth="1"/>
+    <col min="6" max="6" width="25.17578125" customWidth="1"/>
+    <col min="7" max="7" width="26.3515625" customWidth="1"/>
+    <col min="8" max="8" width="19.46875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="16.149999999999999">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -858,7 +862,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="16.149999999999999">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -881,7 +885,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="16.149999999999999">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -904,7 +908,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="16.149999999999999">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -927,7 +931,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="16.149999999999999">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -950,7 +954,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="16.149999999999999">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -973,7 +977,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="16.149999999999999">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -996,7 +1000,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="16.149999999999999">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -1019,7 +1023,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="16.149999999999999">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -1042,7 +1046,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="16.149999999999999">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1065,7 +1069,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="16.149999999999999">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -1088,7 +1092,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="16.149999999999999">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -1114,5 +1118,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>